--- a/etc/documentum/내화및물량/rev0/1_Main/UAE FFF_마감물량 산출 근거_r0.xlsx
+++ b/etc/documentum/내화및물량/rev0/1_Main/UAE FFF_마감물량 산출 근거_r0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\etc\documentum\내화및물량\rev0\1_Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MK\mQ\etc\documentum\내화및물량\rev0\1_Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CF4B9A-61B4-441D-BFAA-00E3B38E5413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19305" windowHeight="7545" activeTab="1"/>
+    <workbookView xWindow="7956" yWindow="828" windowWidth="11604" windowHeight="11676" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trench" sheetId="8" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="Ext Stair" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="296">
   <si>
     <t>BF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -750,18 +751,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그리드 17-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그리드 F-G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그리드 6-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,14 +988,46 @@
   </si>
   <si>
     <t>외부 페인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 18-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 7-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 7,F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 7,K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 15,K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 24,F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 18,A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,6 +1092,22 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1124,7 +1165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,6 +1197,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1197,7 +1244,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1229,18 +1282,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>513708</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>76090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>382094</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>195258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1253,8 +1312,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14243315" y="3137697"/>
-          <a:ext cx="1909459" cy="2160240"/>
+          <a:off x="12738838" y="3574664"/>
+          <a:ext cx="1876091" cy="2305777"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1283,7 +1342,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1315,18 +1380,24 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>168774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>213836</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>41550</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>41551</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1339,8 +1410,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11008179" y="2618060"/>
-          <a:ext cx="2254907" cy="2730276"/>
+          <a:off x="9548191" y="3011365"/>
+          <a:ext cx="2221541" cy="2934029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1369,7 +1440,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1662,32 +1739,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" t="s">
         <v>282</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>283</v>
       </c>
-      <c r="D3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B4">
         <v>21.6</v>
@@ -1702,9 +1779,9 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1714,22 +1791,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="E11:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6">
       <c r="B2" s="4" t="s">
         <v>213</v>
       </c>
@@ -1737,639 +1814,659 @@
         <v>6</v>
       </c>
       <c r="D2" s="5">
-        <f>SUM(D3:D13)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+        <f>SUM(D3:D14)</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="C3" t="s">
         <v>216</v>
       </c>
       <c r="D3">
-        <f>SUM(E4:E6)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+        <f>SUM(E4:E7)</f>
+        <v>48.599999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="E4">
-        <f>14</f>
-        <v>14</v>
+        <f>15+1.2</f>
+        <v>16.2</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="E5">
-        <f>14</f>
-        <v>14</v>
+        <f>15+1.2</f>
+        <v>16.2</v>
       </c>
       <c r="F5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="E6">
+        <f>15+1.2</f>
+        <v>16.2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="C8" t="s">
         <v>217</v>
       </c>
-      <c r="D7">
-        <f>SUM(E8:E11)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E8">
-        <f>16</f>
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f>SUM(E9:E12)</f>
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="E9">
-        <f>16</f>
-        <v>16</v>
+        <f>18+1.2</f>
+        <v>19.2</v>
       </c>
       <c r="F9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="E10">
-        <f>16</f>
-        <v>16</v>
+        <f>18+1.2</f>
+        <v>19.2</v>
       </c>
       <c r="F10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="5">
-        <f>SUM(D16:D26)</f>
+      <c r="D16" s="5">
+        <f>SUM(D17:D27)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="17" spans="2:9">
+      <c r="C17" t="s">
         <v>216</v>
       </c>
-      <c r="D16">
-        <f>SUM(E17:E19)</f>
+      <c r="D17">
+        <f>SUM(E18:E20)</f>
         <v>4.8</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E17">
-        <f>1.2*2</f>
-        <v>2.4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9">
       <c r="E18">
         <f>1.2*2</f>
         <v>2.4</v>
       </c>
       <c r="F18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20">
-        <f>SUM(E21:E24)</f>
-        <v>7.1999999999999993</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E21">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="E19">
         <f>1.2*2</f>
         <v>2.4</v>
       </c>
-      <c r="F21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21">
+        <f>SUM(E22:E25)</f>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="E22">
         <f>1.2*2</f>
         <v>2.4</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
       <c r="E23">
         <f>1.2*2</f>
         <v>2.4</v>
       </c>
       <c r="F23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="E24">
+        <f>1.2*2</f>
+        <v>2.4</v>
+      </c>
+      <c r="F24" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C27" s="4" t="s">
+    <row r="28" spans="2:9">
+      <c r="B28" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="5">
-        <f>SUM(D28:D67)</f>
+      <c r="D28" s="5">
+        <f>SUM(D29:D68)</f>
         <v>994</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
+    <row r="29" spans="2:9">
+      <c r="C29" t="s">
         <v>0</v>
       </c>
-      <c r="D28">
-        <f>SUM(E29:E31)*$I$27</f>
+      <c r="D29">
+        <f>SUM(E30:E32)*$I$28</f>
         <v>196</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E29">
+    <row r="30" spans="2:9">
+      <c r="E30">
         <f>7+7+7+7</f>
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
+    <row r="33" spans="3:7">
+      <c r="C33" t="s">
         <v>3</v>
       </c>
-      <c r="D32">
-        <f>SUM(E33:E43)*$I$27</f>
+      <c r="D33">
+        <f>SUM(E34:E44)*$I$28</f>
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7">
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7">
       <c r="E35">
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>231</v>
-      </c>
-      <c r="G36" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7">
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="G37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7">
       <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7">
+      <c r="E39">
         <f>1+2+2+2+1+1+3+2+2+2+2+1</f>
         <v>21</v>
       </c>
-      <c r="F38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E39">
-        <v>2</v>
-      </c>
       <c r="F39" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7">
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7">
       <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="E43">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="F42" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C44" t="s">
-        <v>226</v>
-      </c>
-      <c r="D44">
-        <f>SUM(E45:E55)*$I$27</f>
+      <c r="F43" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7">
+      <c r="C45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45">
+        <f>SUM(E46:E56)*$I$28</f>
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:7">
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7">
       <c r="E47">
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7">
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>231</v>
-      </c>
-      <c r="G48" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7">
       <c r="E49">
         <v>2</v>
       </c>
       <c r="F49" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="G49" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7">
       <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7">
+      <c r="E51">
         <f>1+2+2+2+1+1+3+2+2+2+2+1</f>
         <v>21</v>
       </c>
-      <c r="F50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E51">
-        <v>2</v>
-      </c>
       <c r="F51" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7">
       <c r="E52">
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7">
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7">
       <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7">
+      <c r="E55">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="F54" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
+      <c r="F55" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7">
+      <c r="C57" t="s">
         <v>5</v>
       </c>
-      <c r="D56">
-        <f>SUM(E57:E67)*$I$27</f>
+      <c r="D57">
+        <f>SUM(E58:E68)*$I$28</f>
         <v>266</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7">
       <c r="E58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7">
       <c r="E59">
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7">
       <c r="E60">
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>231</v>
-      </c>
-      <c r="G60" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7">
       <c r="E61">
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+      <c r="G61" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7">
       <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7">
+      <c r="E63">
         <f>1+2+2+2+1+1+3+2+2+2+2+1</f>
         <v>21</v>
       </c>
-      <c r="F62" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="E63">
-        <v>2</v>
-      </c>
       <c r="F63" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7">
       <c r="E64">
         <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
       <c r="E65">
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
       <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="E67">
         <f>1+1</f>
         <v>2</v>
       </c>
-      <c r="F66" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="4" t="s">
+      <c r="F67" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="5">
-        <f>SUM(D70:D91)</f>
-        <v>568.25</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
+      <c r="D70" s="5">
+        <f>SUM(D71:D93)</f>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="C71" t="s">
         <v>0</v>
       </c>
-      <c r="D70">
-        <f>SUM(E71:E73)</f>
-        <v>104.3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E71">
-        <v>62.65</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="D71">
+        <f>SUM(E72:E74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <f>SUM(E76:E79)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="E76" s="11">
+        <v>39</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="E77" s="11">
+        <f>42+50</f>
+        <v>92</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="E78" s="11">
+        <v>26</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="E79" s="11">
+        <v>26</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="C80" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E72">
-        <v>41.65</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="D80">
+        <f>SUM(E81:E85)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="E81" s="11">
+        <v>39</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="E82" s="11">
+        <f>42+50</f>
+        <v>92</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="E83" s="11">
+        <v>26</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="E84" s="11">
+        <v>26</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <f>SUM(E87:E90)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="E87" s="11">
+        <v>39</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="E88" s="11">
+        <f>42+50</f>
+        <v>92</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="E89" s="11">
+        <v>26</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="E90" s="11">
+        <v>26</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="5">
+        <f>SUM(D96:D106)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6">
+      <c r="C97" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74">
-        <f>SUM(E75:E78)</f>
-        <v>154.65</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E75">
-        <v>36</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="D97">
+        <f>SUM(E98:E101)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6">
+      <c r="E98" s="11">
+        <v>39</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6">
+      <c r="E99" s="11">
+        <f>42+50</f>
+        <v>92</v>
+      </c>
+      <c r="F99" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E76">
-        <v>92.65</v>
-      </c>
-      <c r="F76" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E77">
+    <row r="100" spans="3:6">
+      <c r="E100" s="11">
         <v>26</v>
       </c>
-      <c r="F77" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
-        <v>226</v>
-      </c>
-      <c r="D79">
-        <f>SUM(E80:E83)</f>
-        <v>154.65</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E80">
-        <v>36</v>
-      </c>
-      <c r="F80" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E81">
-        <v>92.65</v>
-      </c>
-      <c r="F81" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E82">
+      <c r="F100" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6">
+      <c r="E101" s="11">
         <v>26</v>
       </c>
-      <c r="F82" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84">
-        <f>SUM(E85:E88)</f>
-        <v>154.65</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E85">
-        <v>36</v>
-      </c>
-      <c r="F85" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E86">
-        <v>92.65</v>
-      </c>
-      <c r="F86" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E87">
-        <v>26</v>
-      </c>
-      <c r="F87" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B93" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="5">
-        <f>SUM(D94:D104)</f>
-        <v>154.65</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
-        <v>227</v>
-      </c>
-      <c r="D95">
-        <f>SUM(E96:E99)</f>
-        <v>154.65</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E96">
-        <v>36</v>
-      </c>
-      <c r="F96" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E97">
-        <v>92.65</v>
-      </c>
-      <c r="F97" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E98">
-        <v>26</v>
-      </c>
-      <c r="F98" t="s">
-        <v>225</v>
+      <c r="F101" s="11" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2380,75 +2477,75 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="B4">
         <v>416</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="F6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="F7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G7" s="5">
         <f>C15+C24</f>
         <v>797.57999999999993</v>
       </c>
       <c r="H7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C8">
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="B9">
         <v>416</v>
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C12">
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B13">
         <f>8+28+8</f>
@@ -2459,9 +2556,9 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B14">
         <f>8+26+8</f>
@@ -2472,26 +2569,26 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="C15" s="4">
         <f>SUM(C13:C14)</f>
         <v>103.19999999999999</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="B18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C18">
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B19">
         <v>322.64999999999998</v>
@@ -2501,9 +2598,9 @@
         <v>387.17999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B20">
         <v>146</v>
@@ -2513,9 +2610,9 @@
         <v>175.2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B21">
         <f>8+7+8+7</f>
@@ -2526,9 +2623,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -2538,13 +2635,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4">
       <c r="C24" s="4">
         <f>SUM(C19:C23)</f>
         <v>694.37999999999988</v>
       </c>
       <c r="D24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2554,29 +2651,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:M63"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="B3">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -2584,27 +2681,27 @@
         <v>5.5</v>
       </c>
       <c r="K4" t="s">
+        <v>265</v>
+      </c>
+      <c r="L4" t="s">
         <v>267</v>
       </c>
-      <c r="L4" t="s">
-        <v>269</v>
-      </c>
       <c r="M4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>2</v>
@@ -2621,7 +2718,7 @@
         <v>8112.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>12</v>
       </c>
@@ -2644,7 +2741,7 @@
         <v>77</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L6">
         <f>SUM(D$6:D$29)+SUM(D$36:D$46)+SUM(D$52:D$61)</f>
@@ -2655,7 +2752,7 @@
         <v>6118.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>12</v>
       </c>
@@ -2670,11 +2767,11 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E28" si="1">$D$4*D7</f>
+        <f t="shared" ref="E7:E18" si="1">$D$4*D7</f>
         <v>38.5</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F28" si="2">E7*2</f>
+        <f t="shared" ref="F7:F18" si="2">E7*2</f>
         <v>77</v>
       </c>
       <c r="K7" s="3" t="s">
@@ -2685,7 +2782,7 @@
         <v>12237</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>12</v>
       </c>
@@ -2708,7 +2805,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>12</v>
       </c>
@@ -2731,7 +2828,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>12</v>
       </c>
@@ -2754,7 +2851,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>12</v>
       </c>
@@ -2777,7 +2874,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2800,7 +2897,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2823,7 +2920,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2846,7 +2943,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>5.5</v>
       </c>
@@ -2869,7 +2966,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>5.5</v>
       </c>
@@ -2892,7 +2989,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>5.5</v>
       </c>
@@ -2915,7 +3012,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>5.5</v>
       </c>
@@ -2938,7 +3035,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>5.5</v>
       </c>
@@ -2950,7 +3047,7 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>5.5</v>
       </c>
@@ -2962,7 +3059,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>5.5</v>
       </c>
@@ -2974,7 +3071,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>5.5</v>
       </c>
@@ -2986,7 +3083,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>5.5</v>
       </c>
@@ -2998,7 +3095,7 @@
         <v>203.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>5.5</v>
       </c>
@@ -3010,7 +3107,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>5.5</v>
       </c>
@@ -3022,7 +3119,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>5.5</v>
       </c>
@@ -3034,7 +3131,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>5.5</v>
       </c>
@@ -3046,7 +3143,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>5.5</v>
       </c>
@@ -3058,7 +3155,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="B30" s="4">
         <f>SUM(B6:B29)</f>
         <v>467</v>
@@ -3074,7 +3171,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6">
       <c r="B34" t="s">
         <v>4</v>
       </c>
@@ -3082,24 +3179,24 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6">
       <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6">
       <c r="B36">
         <v>24</v>
       </c>
@@ -3119,12 +3216,12 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6">
       <c r="B37">
         <v>24</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:C45" si="4">B37*$D$34</f>
+        <f t="shared" ref="C37:C44" si="4">B37*$D$34</f>
         <v>156</v>
       </c>
       <c r="D37">
@@ -3139,7 +3236,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6">
       <c r="B38">
         <v>26</v>
       </c>
@@ -3159,7 +3256,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6">
       <c r="B39">
         <v>12</v>
       </c>
@@ -3179,7 +3276,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6">
       <c r="B40">
         <v>30</v>
       </c>
@@ -3199,7 +3296,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6">
       <c r="B41">
         <v>30</v>
       </c>
@@ -3219,7 +3316,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6">
       <c r="B42">
         <v>8</v>
       </c>
@@ -3239,7 +3336,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6">
       <c r="B43">
         <v>100</v>
       </c>
@@ -3259,7 +3356,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6">
       <c r="B44">
         <v>28</v>
       </c>
@@ -3279,7 +3376,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6">
       <c r="D45">
         <v>8</v>
       </c>
@@ -3292,7 +3389,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6">
       <c r="B47" s="4">
         <f>SUM(B36:B46)</f>
         <v>282</v>
@@ -3308,32 +3405,32 @@
         <v>5915</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6">
       <c r="B50" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6">
       <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6">
       <c r="B52">
         <v>19</v>
       </c>
@@ -3353,7 +3450,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6">
       <c r="B53">
         <v>60</v>
       </c>
@@ -3365,7 +3462,7 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <f t="shared" ref="E53:E61" si="8">$D$50*D53</f>
+        <f t="shared" ref="E53:E58" si="8">$D$50*D53</f>
         <v>48</v>
       </c>
       <c r="F53">
@@ -3373,7 +3470,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6">
       <c r="B54">
         <v>58</v>
       </c>
@@ -3393,7 +3490,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6">
       <c r="B55">
         <v>73</v>
       </c>
@@ -3413,7 +3510,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6">
       <c r="B56">
         <v>39</v>
       </c>
@@ -3433,7 +3530,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6">
       <c r="B57">
         <v>26</v>
       </c>
@@ -3453,7 +3550,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6">
       <c r="B58">
         <v>10</v>
       </c>
@@ -3473,7 +3570,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6">
       <c r="B59">
         <v>17</v>
       </c>
@@ -3482,7 +3579,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6">
       <c r="B60">
         <v>35</v>
       </c>
@@ -3491,7 +3588,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6">
       <c r="B61">
         <v>28</v>
       </c>
@@ -3500,7 +3597,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6">
       <c r="B63" s="9">
         <f>SUM(B52:B62)</f>
         <v>365</v>
@@ -3524,26 +3621,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:R219"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="20.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18">
       <c r="R3" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18">
       <c r="H4" s="2" t="str">
         <f>B5</f>
         <v>BF</v>
@@ -3553,7 +3650,7 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -3561,13 +3658,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2">
@@ -3575,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2">
@@ -3583,7 +3680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -3597,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2">
@@ -3605,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2">
@@ -3613,7 +3710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -3621,13 +3718,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
@@ -3635,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2">
@@ -3643,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3651,13 +3748,13 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
@@ -3665,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2">
@@ -3673,7 +3770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -3681,13 +3778,13 @@
         <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2">
@@ -3695,7 +3792,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2">
@@ -3703,7 +3800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -3727,7 +3824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -3751,7 +3848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -3759,7 +3856,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2">
@@ -3767,7 +3864,7 @@
         <v>2</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2">
@@ -3775,7 +3872,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -3799,7 +3896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -3823,7 +3920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18">
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -3831,7 +3928,7 @@
         <v>18</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2">
@@ -3839,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2">
@@ -3847,7 +3944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -3856,7 +3953,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="H16" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2">
@@ -3864,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2">
@@ -3872,7 +3969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -3897,7 +3994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -3905,7 +4002,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2">
@@ -3913,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2">
@@ -3921,7 +4018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -3929,7 +4026,7 @@
         <v>22</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2">
@@ -3937,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2">
@@ -3945,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15">
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -3953,7 +4050,7 @@
         <v>23</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2">
@@ -3961,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2">
@@ -3969,12 +4066,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15">
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2">
@@ -3982,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2">
@@ -3990,13 +4087,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15">
       <c r="H28" s="2" t="str">
         <f>B29</f>
         <v>GF</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15">
       <c r="B29" t="s">
         <v>24</v>
       </c>
@@ -4004,13 +4101,13 @@
         <v>25</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2">
@@ -4018,7 +4115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15">
       <c r="B30" t="s">
         <v>24</v>
       </c>
@@ -4026,13 +4123,13 @@
         <v>26</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2">
@@ -4040,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15">
       <c r="B31" t="s">
         <v>24</v>
       </c>
@@ -4048,13 +4145,13 @@
         <v>28</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2">
@@ -4062,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15">
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -4070,13 +4167,13 @@
         <v>29</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2">
@@ -4084,7 +4181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -4092,13 +4189,13 @@
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2">
@@ -4106,7 +4203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10">
       <c r="B34" t="s">
         <v>24</v>
       </c>
@@ -4114,7 +4211,7 @@
         <v>31</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -4128,7 +4225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -4136,7 +4233,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -4150,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10">
       <c r="B36" t="s">
         <v>24</v>
       </c>
@@ -4158,13 +4255,13 @@
         <v>34</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2">
@@ -4172,7 +4269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10">
       <c r="B37" t="s">
         <v>24</v>
       </c>
@@ -4180,7 +4277,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -4194,7 +4291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10">
       <c r="B38" t="s">
         <v>24</v>
       </c>
@@ -4202,7 +4299,7 @@
         <v>36</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -4216,7 +4313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10">
       <c r="B39" t="s">
         <v>24</v>
       </c>
@@ -4230,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2">
@@ -4238,7 +4335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10">
       <c r="B40" t="s">
         <v>24</v>
       </c>
@@ -4252,7 +4349,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2">
@@ -4260,7 +4357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10">
       <c r="B41" t="s">
         <v>24</v>
       </c>
@@ -4268,7 +4365,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -4282,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10">
       <c r="B42" t="s">
         <v>24</v>
       </c>
@@ -4290,13 +4387,13 @@
         <v>40</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2">
@@ -4304,7 +4401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10">
       <c r="B43" t="s">
         <v>24</v>
       </c>
@@ -4312,13 +4409,13 @@
         <v>41</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2">
@@ -4326,7 +4423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10">
       <c r="B44" t="s">
         <v>24</v>
       </c>
@@ -4334,13 +4431,13 @@
         <v>42</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2">
@@ -4348,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10">
       <c r="B45" t="s">
         <v>24</v>
       </c>
@@ -4362,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2">
@@ -4370,7 +4467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10">
       <c r="B46" t="s">
         <v>24</v>
       </c>
@@ -4384,7 +4481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10">
       <c r="B47" t="s">
         <v>24</v>
       </c>
@@ -4398,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10">
       <c r="B48" t="s">
         <v>24</v>
       </c>
@@ -4412,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5">
       <c r="B49" t="s">
         <v>24</v>
       </c>
@@ -4426,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5">
       <c r="B50" t="s">
         <v>24</v>
       </c>
@@ -4434,13 +4531,13 @@
         <v>48</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5">
       <c r="B51" t="s">
         <v>24</v>
       </c>
@@ -4448,13 +4545,13 @@
         <v>49</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5">
       <c r="B52" t="s">
         <v>24</v>
       </c>
@@ -4462,13 +4559,13 @@
         <v>50</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5">
       <c r="B53" t="s">
         <v>24</v>
       </c>
@@ -4476,13 +4573,13 @@
         <v>51</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5">
       <c r="B54" t="s">
         <v>24</v>
       </c>
@@ -4490,13 +4587,13 @@
         <v>52</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5">
       <c r="B55" t="s">
         <v>24</v>
       </c>
@@ -4504,13 +4601,13 @@
         <v>53</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5">
       <c r="B56" t="s">
         <v>24</v>
       </c>
@@ -4518,13 +4615,13 @@
         <v>54</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5">
       <c r="B57" t="s">
         <v>24</v>
       </c>
@@ -4532,13 +4629,13 @@
         <v>55</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5">
       <c r="B58" t="s">
         <v>24</v>
       </c>
@@ -4552,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5">
       <c r="B59" t="s">
         <v>24</v>
       </c>
@@ -4566,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5">
       <c r="B60" t="s">
         <v>24</v>
       </c>
@@ -4580,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5">
       <c r="B61" t="s">
         <v>24</v>
       </c>
@@ -4594,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5">
       <c r="B62" t="s">
         <v>24</v>
       </c>
@@ -4608,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5">
       <c r="B63" t="s">
         <v>24</v>
       </c>
@@ -4622,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5">
       <c r="B64" t="s">
         <v>24</v>
       </c>
@@ -4630,13 +4727,13 @@
         <v>62</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5">
       <c r="B65" t="s">
         <v>24</v>
       </c>
@@ -4644,13 +4741,13 @@
         <v>63</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5">
       <c r="B66" t="s">
         <v>24</v>
       </c>
@@ -4658,13 +4755,13 @@
         <v>64</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5">
       <c r="B67" t="s">
         <v>24</v>
       </c>
@@ -4672,13 +4769,13 @@
         <v>65</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5">
       <c r="B68" t="s">
         <v>24</v>
       </c>
@@ -4686,13 +4783,13 @@
         <v>66</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5">
       <c r="B69" t="s">
         <v>24</v>
       </c>
@@ -4700,13 +4797,13 @@
         <v>67</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5">
       <c r="B70" t="s">
         <v>24</v>
       </c>
@@ -4714,13 +4811,13 @@
         <v>68</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5">
       <c r="B71" t="s">
         <v>24</v>
       </c>
@@ -4728,13 +4825,13 @@
         <v>69</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5">
       <c r="B72" t="s">
         <v>24</v>
       </c>
@@ -4742,13 +4839,13 @@
         <v>70</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5">
       <c r="B73" t="s">
         <v>24</v>
       </c>
@@ -4756,13 +4853,13 @@
         <v>71</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5">
       <c r="B74" t="s">
         <v>24</v>
       </c>
@@ -4776,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5">
       <c r="B75" t="s">
         <v>24</v>
       </c>
@@ -4790,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5">
       <c r="B76" t="s">
         <v>24</v>
       </c>
@@ -4804,7 +4901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5">
       <c r="B77" t="s">
         <v>24</v>
       </c>
@@ -4812,13 +4909,13 @@
         <v>75</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5">
       <c r="B78" t="s">
         <v>24</v>
       </c>
@@ -4826,13 +4923,13 @@
         <v>76</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5">
       <c r="B79" t="s">
         <v>24</v>
       </c>
@@ -4840,13 +4937,13 @@
         <v>77</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5">
       <c r="B80" t="s">
         <v>24</v>
       </c>
@@ -4854,13 +4951,13 @@
         <v>78</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5">
       <c r="B81" t="s">
         <v>24</v>
       </c>
@@ -4868,13 +4965,13 @@
         <v>79</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5">
       <c r="B82" t="s">
         <v>24</v>
       </c>
@@ -4882,13 +4979,13 @@
         <v>80</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5">
       <c r="B83" t="s">
         <v>24</v>
       </c>
@@ -4896,13 +4993,13 @@
         <v>81</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5">
       <c r="B84" t="s">
         <v>24</v>
       </c>
@@ -4910,13 +5007,13 @@
         <v>82</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5">
       <c r="B85" t="s">
         <v>24</v>
       </c>
@@ -4924,13 +5021,13 @@
         <v>83</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5">
       <c r="B86" t="s">
         <v>24</v>
       </c>
@@ -4938,13 +5035,13 @@
         <v>84</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5">
       <c r="B87" t="s">
         <v>24</v>
       </c>
@@ -4952,13 +5049,13 @@
         <v>85</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5">
       <c r="B88" t="s">
         <v>24</v>
       </c>
@@ -4966,13 +5063,13 @@
         <v>86</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5">
       <c r="B89" t="s">
         <v>24</v>
       </c>
@@ -4980,13 +5077,13 @@
         <v>87</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5">
       <c r="B90" t="s">
         <v>24</v>
       </c>
@@ -5000,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5">
       <c r="B91" t="s">
         <v>24</v>
       </c>
@@ -5014,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5">
       <c r="B92" t="s">
         <v>24</v>
       </c>
@@ -5022,13 +5119,13 @@
         <v>90</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:5">
       <c r="B93" t="s">
         <v>24</v>
       </c>
@@ -5042,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:5">
       <c r="B94" t="s">
         <v>24</v>
       </c>
@@ -5056,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5">
       <c r="B95" t="s">
         <v>24</v>
       </c>
@@ -5070,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5">
       <c r="B96" t="s">
         <v>24</v>
       </c>
@@ -5078,13 +5175,13 @@
         <v>94</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5">
       <c r="B97" t="s">
         <v>24</v>
       </c>
@@ -5092,13 +5189,13 @@
         <v>95</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5">
       <c r="B98" t="s">
         <v>24</v>
       </c>
@@ -5106,13 +5203,13 @@
         <v>96</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5">
       <c r="B99" t="s">
         <v>24</v>
       </c>
@@ -5120,13 +5217,13 @@
         <v>97</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5">
       <c r="B100" t="s">
         <v>24</v>
       </c>
@@ -5134,13 +5231,13 @@
         <v>98</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5">
       <c r="B101" t="s">
         <v>24</v>
       </c>
@@ -5148,13 +5245,13 @@
         <v>99</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5">
       <c r="B102" t="s">
         <v>24</v>
       </c>
@@ -5162,13 +5259,13 @@
         <v>100</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5">
       <c r="B103" t="s">
         <v>24</v>
       </c>
@@ -5176,13 +5273,13 @@
         <v>101</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5">
       <c r="B104" t="s">
         <v>24</v>
       </c>
@@ -5190,13 +5287,13 @@
         <v>102</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:5">
       <c r="B105" t="s">
         <v>24</v>
       </c>
@@ -5204,13 +5301,13 @@
         <v>103</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5">
       <c r="B106" t="s">
         <v>24</v>
       </c>
@@ -5218,13 +5315,13 @@
         <v>104</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5">
       <c r="B107" t="s">
         <v>24</v>
       </c>
@@ -5238,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5">
       <c r="B108" t="s">
         <v>24</v>
       </c>
@@ -5246,13 +5343,13 @@
         <v>106</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5">
       <c r="B109" t="s">
         <v>24</v>
       </c>
@@ -5260,13 +5357,13 @@
         <v>107</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5">
       <c r="B110" t="s">
         <v>24</v>
       </c>
@@ -5274,13 +5371,13 @@
         <v>108</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5">
       <c r="B111" t="s">
         <v>24</v>
       </c>
@@ -5288,13 +5385,13 @@
         <v>109</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:5">
       <c r="B112" t="s">
         <v>24</v>
       </c>
@@ -5302,13 +5399,13 @@
         <v>110</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10">
       <c r="B113" t="s">
         <v>24</v>
       </c>
@@ -5317,7 +5414,7 @@
       </c>
       <c r="D113" s="8"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10">
       <c r="B114" t="s">
         <v>24</v>
       </c>
@@ -5325,7 +5422,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10">
       <c r="B115" t="s">
         <v>24</v>
       </c>
@@ -5333,7 +5430,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10">
       <c r="B116" t="s">
         <v>24</v>
       </c>
@@ -5341,7 +5438,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10">
       <c r="B117" t="s">
         <v>24</v>
       </c>
@@ -5349,7 +5446,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10">
       <c r="B118" t="s">
         <v>24</v>
       </c>
@@ -5357,7 +5454,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10">
       <c r="B119" t="s">
         <v>24</v>
       </c>
@@ -5365,7 +5462,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10">
       <c r="B120" t="s">
         <v>24</v>
       </c>
@@ -5373,13 +5470,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10">
       <c r="H122" s="2" t="str">
         <f>B123</f>
         <v>1F</v>
       </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10">
       <c r="B123" t="s">
         <v>119</v>
       </c>
@@ -5387,13 +5484,13 @@
         <v>120</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2">
@@ -5401,7 +5498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10">
       <c r="B124" t="s">
         <v>119</v>
       </c>
@@ -5409,13 +5506,13 @@
         <v>121</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E124">
         <v>2</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2">
@@ -5423,7 +5520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10">
       <c r="B125" t="s">
         <v>119</v>
       </c>
@@ -5431,13 +5528,13 @@
         <v>122</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I125" s="2"/>
       <c r="J125" s="2">
@@ -5445,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10">
       <c r="B126" t="s">
         <v>119</v>
       </c>
@@ -5459,7 +5556,7 @@
         <v>1</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="2">
@@ -5467,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10">
       <c r="B127" t="s">
         <v>119</v>
       </c>
@@ -5475,13 +5572,13 @@
         <v>124</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2">
@@ -5489,7 +5586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10">
       <c r="B128" t="s">
         <v>119</v>
       </c>
@@ -5511,7 +5608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:10">
       <c r="B129" t="s">
         <v>119</v>
       </c>
@@ -5533,7 +5630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:10">
       <c r="B130" t="s">
         <v>119</v>
       </c>
@@ -5541,13 +5638,13 @@
         <v>127</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2">
@@ -5555,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:10">
       <c r="B131" t="s">
         <v>119</v>
       </c>
@@ -5563,7 +5660,7 @@
         <v>128</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -5577,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:10">
       <c r="B132" t="s">
         <v>119</v>
       </c>
@@ -5585,7 +5682,7 @@
         <v>129</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -5599,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:10">
       <c r="B133" t="s">
         <v>119</v>
       </c>
@@ -5607,13 +5704,13 @@
         <v>130</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E133">
         <v>1</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2">
@@ -5621,7 +5718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:10">
       <c r="B134" t="s">
         <v>119</v>
       </c>
@@ -5629,13 +5726,13 @@
         <v>131</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E134">
         <v>2</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="2">
@@ -5643,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:10">
       <c r="B135" t="s">
         <v>119</v>
       </c>
@@ -5665,7 +5762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:10">
       <c r="B136" t="s">
         <v>119</v>
       </c>
@@ -5673,13 +5770,13 @@
         <v>133</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="2">
@@ -5687,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:10">
       <c r="B137" t="s">
         <v>119</v>
       </c>
@@ -5695,13 +5792,13 @@
         <v>134</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2">
@@ -5709,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:10">
       <c r="B138" t="s">
         <v>119</v>
       </c>
@@ -5717,13 +5814,13 @@
         <v>135</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E138">
         <v>2</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2">
@@ -5731,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:10">
       <c r="B139" t="s">
         <v>119</v>
       </c>
@@ -5739,13 +5836,13 @@
         <v>136</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E139">
         <v>2</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I139" s="2"/>
       <c r="J139" s="2">
@@ -5753,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:10">
       <c r="B140" t="s">
         <v>119</v>
       </c>
@@ -5767,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:10">
       <c r="B141" t="s">
         <v>119</v>
       </c>
@@ -5781,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:10">
       <c r="B142" t="s">
         <v>119</v>
       </c>
@@ -5789,13 +5886,13 @@
         <v>139</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:10">
       <c r="B143" t="s">
         <v>119</v>
       </c>
@@ -5809,7 +5906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:10">
       <c r="B144" t="s">
         <v>119</v>
       </c>
@@ -5817,13 +5914,13 @@
         <v>141</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5">
       <c r="B145" t="s">
         <v>119</v>
       </c>
@@ -5831,13 +5928,13 @@
         <v>142</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5">
       <c r="B146" t="s">
         <v>119</v>
       </c>
@@ -5845,13 +5942,13 @@
         <v>143</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E146">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:5">
       <c r="B147" t="s">
         <v>119</v>
       </c>
@@ -5859,13 +5956,13 @@
         <v>144</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E147">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:5">
       <c r="B148" t="s">
         <v>119</v>
       </c>
@@ -5873,13 +5970,13 @@
         <v>145</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:5">
       <c r="B149" t="s">
         <v>119</v>
       </c>
@@ -5887,13 +5984,13 @@
         <v>146</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5">
       <c r="B150" t="s">
         <v>119</v>
       </c>
@@ -5901,13 +5998,13 @@
         <v>147</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5">
       <c r="B151" t="s">
         <v>119</v>
       </c>
@@ -5915,7 +6012,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5">
       <c r="B152" t="s">
         <v>119</v>
       </c>
@@ -5923,7 +6020,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5">
       <c r="B153" t="s">
         <v>119</v>
       </c>
@@ -5931,7 +6028,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5">
       <c r="B154" t="s">
         <v>119</v>
       </c>
@@ -5939,7 +6036,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:5">
       <c r="B155" t="s">
         <v>119</v>
       </c>
@@ -5947,7 +6044,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5">
       <c r="B156" t="s">
         <v>119</v>
       </c>
@@ -5955,7 +6052,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5">
       <c r="B157" t="s">
         <v>119</v>
       </c>
@@ -5963,7 +6060,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:5">
       <c r="B158" t="s">
         <v>119</v>
       </c>
@@ -5972,7 +6069,7 @@
       </c>
       <c r="D158" s="8"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:5">
       <c r="B159" t="s">
         <v>119</v>
       </c>
@@ -5980,7 +6077,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5">
       <c r="B160" t="s">
         <v>119</v>
       </c>
@@ -5988,13 +6085,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:10">
       <c r="H162" s="2" t="str">
         <f>B163</f>
         <v>2F</v>
       </c>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:10">
       <c r="B163" t="s">
         <v>158</v>
       </c>
@@ -6002,13 +6099,13 @@
         <v>159</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E163">
         <v>1</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2">
@@ -6016,7 +6113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:10">
       <c r="B164" t="s">
         <v>158</v>
       </c>
@@ -6030,7 +6127,7 @@
         <v>1</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2">
@@ -6038,7 +6135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:10">
       <c r="B165" t="s">
         <v>158</v>
       </c>
@@ -6052,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2">
@@ -6060,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:10">
       <c r="B166" t="s">
         <v>158</v>
       </c>
@@ -6068,13 +6165,13 @@
         <v>162</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E166">
         <v>1</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I166" s="2"/>
       <c r="J166" s="2">
@@ -6082,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:10">
       <c r="B167" t="s">
         <v>158</v>
       </c>
@@ -6096,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2">
@@ -6104,7 +6201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:10">
       <c r="B168" t="s">
         <v>158</v>
       </c>
@@ -6112,7 +6209,7 @@
         <v>164</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -6126,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:10">
       <c r="B169" t="s">
         <v>158</v>
       </c>
@@ -6134,7 +6231,7 @@
         <v>165</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -6148,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:10">
       <c r="B170" t="s">
         <v>158</v>
       </c>
@@ -6162,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="2">
@@ -6170,7 +6267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:10">
       <c r="B171" t="s">
         <v>158</v>
       </c>
@@ -6178,7 +6275,7 @@
         <v>167</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -6192,7 +6289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:10">
       <c r="B172" t="s">
         <v>158</v>
       </c>
@@ -6214,7 +6311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:10">
       <c r="B173" t="s">
         <v>158</v>
       </c>
@@ -6228,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2">
@@ -6236,7 +6333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:10">
       <c r="B174" t="s">
         <v>158</v>
       </c>
@@ -6244,13 +6341,13 @@
         <v>170</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E174">
         <v>1</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I174" s="2"/>
       <c r="J174" s="2">
@@ -6258,7 +6355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:10">
       <c r="B175" t="s">
         <v>158</v>
       </c>
@@ -6280,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:10">
       <c r="B176" t="s">
         <v>158</v>
       </c>
@@ -6294,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I176" s="2"/>
       <c r="J176" s="2">
@@ -6302,7 +6399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:10">
       <c r="B177" t="s">
         <v>158</v>
       </c>
@@ -6316,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I177" s="2"/>
       <c r="J177" s="2">
@@ -6324,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:10">
       <c r="B178" t="s">
         <v>158</v>
       </c>
@@ -6332,13 +6429,13 @@
         <v>174</v>
       </c>
       <c r="D178" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="E178">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="I178" s="2"/>
       <c r="J178" s="2">
@@ -6346,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:10">
       <c r="B179" t="s">
         <v>158</v>
       </c>
@@ -6354,13 +6451,13 @@
         <v>175</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I179" s="2"/>
       <c r="J179" s="2">
@@ -6368,7 +6465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:10">
       <c r="B180" t="s">
         <v>158</v>
       </c>
@@ -6382,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:10">
       <c r="B181" t="s">
         <v>158</v>
       </c>
@@ -6396,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:10">
       <c r="B182" t="s">
         <v>158</v>
       </c>
@@ -6404,13 +6501,13 @@
         <v>178</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:10">
       <c r="B183" t="s">
         <v>158</v>
       </c>
@@ -6418,13 +6515,13 @@
         <v>179</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:10">
       <c r="B184" t="s">
         <v>158</v>
       </c>
@@ -6438,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:10">
       <c r="B185" t="s">
         <v>158</v>
       </c>
@@ -6446,13 +6543,13 @@
         <v>181</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:10">
       <c r="B186" t="s">
         <v>158</v>
       </c>
@@ -6460,13 +6557,13 @@
         <v>182</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:10">
       <c r="B187" t="s">
         <v>158</v>
       </c>
@@ -6474,13 +6571,13 @@
         <v>183</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:10">
       <c r="B188" t="s">
         <v>158</v>
       </c>
@@ -6488,13 +6585,13 @@
         <v>184</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:10">
       <c r="B189" t="s">
         <v>158</v>
       </c>
@@ -6502,13 +6599,13 @@
         <v>185</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:10">
       <c r="B190" t="s">
         <v>158</v>
       </c>
@@ -6516,13 +6613,13 @@
         <v>186</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:10">
       <c r="B191" t="s">
         <v>158</v>
       </c>
@@ -6530,13 +6627,13 @@
         <v>187</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E191">
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:10">
       <c r="B192" t="s">
         <v>158</v>
       </c>
@@ -6544,13 +6641,13 @@
         <v>188</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E192">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:10">
       <c r="B193" t="s">
         <v>158</v>
       </c>
@@ -6558,13 +6655,13 @@
         <v>189</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:10">
       <c r="B194" t="s">
         <v>5</v>
       </c>
@@ -6572,13 +6669,13 @@
         <v>190</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:10">
       <c r="B195" t="s">
         <v>5</v>
       </c>
@@ -6586,32 +6683,32 @@
         <v>191</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:10">
       <c r="B196" t="s">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:10">
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D197" s="8" t="s">
         <v>27</v>
@@ -6620,33 +6717,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:10">
       <c r="B198" t="s">
         <v>158</v>
       </c>
       <c r="C198" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10">
       <c r="B199" t="s">
         <v>158</v>
       </c>
       <c r="C199" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D199" s="8"/>
     </row>
-    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:10">
       <c r="D200" s="8"/>
     </row>
-    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:10">
       <c r="H202" s="2" t="str">
         <f>B203</f>
         <v>RF</v>
       </c>
     </row>
-    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:10">
       <c r="B203" t="s">
         <v>192</v>
       </c>
@@ -6654,13 +6751,13 @@
         <v>193</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E203">
         <v>2</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I203" s="2"/>
       <c r="J203" s="2">
@@ -6668,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:10">
       <c r="B204" t="s">
         <v>192</v>
       </c>
@@ -6676,7 +6773,7 @@
         <v>194</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I204" s="2"/>
       <c r="J204" s="2">
@@ -6684,9 +6781,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:10">
       <c r="H205" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="2">
@@ -6694,9 +6791,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:10">
       <c r="H206" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="2">
@@ -6704,9 +6801,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:10">
       <c r="H207" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="2">
@@ -6714,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:10">
       <c r="H208" s="2" t="s">
         <v>32</v>
       </c>
@@ -6724,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:10">
       <c r="H209" s="2" t="s">
         <v>208</v>
       </c>
@@ -6734,9 +6831,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:10">
       <c r="H210" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="2">
@@ -6744,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:10">
       <c r="H211" s="2" t="s">
         <v>27</v>
       </c>
@@ -6754,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:10">
       <c r="H212" s="2" t="s">
         <v>209</v>
       </c>
@@ -6764,9 +6861,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:10">
       <c r="H213" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I213" s="2"/>
       <c r="J213" s="2">
@@ -6774,9 +6871,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:10">
       <c r="H214" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I214" s="2"/>
       <c r="J214" s="2">
@@ -6784,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:10">
       <c r="H215" s="2" t="s">
         <v>210</v>
       </c>
@@ -6794,9 +6891,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:10">
       <c r="H216" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I216" s="2"/>
       <c r="J216" s="2">
@@ -6804,9 +6901,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:10">
       <c r="H217" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I217" s="2"/>
       <c r="J217" s="2">
@@ -6814,9 +6911,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:10">
       <c r="H218" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I218" s="2"/>
       <c r="J218" s="2">
@@ -6824,9 +6921,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="8:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:10">
       <c r="H219" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I219" s="2"/>
       <c r="J219" s="2">
@@ -6842,24 +6939,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:N75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="30.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14">
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14">
       <c r="H4" s="1" t="str">
         <f>B5</f>
         <v>GF</v>
@@ -6869,7 +6966,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14">
       <c r="B5" t="s">
         <v>195</v>
       </c>
@@ -6895,7 +6992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14">
       <c r="D6" t="s">
         <v>199</v>
       </c>
@@ -6915,7 +7012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14">
       <c r="D7" t="s">
         <v>199</v>
       </c>
@@ -6935,7 +7032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14">
       <c r="D8" t="s">
         <v>199</v>
       </c>
@@ -6955,7 +7052,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14">
       <c r="D9" t="s">
         <v>199</v>
       </c>
@@ -6975,7 +7072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14">
       <c r="D10" t="s">
         <v>199</v>
       </c>
@@ -6983,108 +7080,108 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14">
       <c r="D11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14">
       <c r="D12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14">
       <c r="D13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14">
       <c r="D14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14">
       <c r="D15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14">
       <c r="D16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10">
       <c r="D17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10">
       <c r="D18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10">
       <c r="D19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10">
       <c r="D20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10">
       <c r="D21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10">
       <c r="D22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10">
       <c r="D23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10">
       <c r="D24" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10">
       <c r="D25" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10">
       <c r="D26" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10">
       <c r="D27" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10">
       <c r="D28" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10">
       <c r="D29" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10">
       <c r="H31" s="1" t="str">
         <f>B32</f>
         <v>1F</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10">
       <c r="B32" t="s">
         <v>119</v>
       </c>
@@ -7103,7 +7200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:10">
       <c r="D33" t="s">
         <v>200</v>
       </c>
@@ -7116,7 +7213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:10">
       <c r="D34" t="s">
         <v>202</v>
       </c>
@@ -7129,7 +7226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:10">
       <c r="D35" t="s">
         <v>202</v>
       </c>
@@ -7142,7 +7239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:10">
       <c r="D36" t="s">
         <v>202</v>
       </c>
@@ -7155,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:10">
       <c r="D37" t="s">
         <v>202</v>
       </c>
@@ -7163,88 +7260,88 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:10">
       <c r="D38" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:10">
       <c r="D39" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:10">
       <c r="D40" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:10">
       <c r="D41" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:10">
       <c r="D42" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:10">
       <c r="D43" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:10">
       <c r="D44" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:10">
       <c r="D45" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:10">
       <c r="D46" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:10">
       <c r="D47" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:10">
       <c r="D48" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10">
       <c r="D49" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10">
       <c r="D50" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10">
       <c r="D51" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10">
       <c r="D52" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10">
       <c r="H54" s="1" t="str">
         <f>B55</f>
         <v>2F</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10">
       <c r="B55" t="s">
         <v>158</v>
       </c>
@@ -7263,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10">
       <c r="D56" t="s">
         <v>202</v>
       </c>
@@ -7276,7 +7373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10">
       <c r="D57" t="s">
         <v>202</v>
       </c>
@@ -7289,7 +7386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10">
       <c r="D58" t="s">
         <v>202</v>
       </c>
@@ -7302,7 +7399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10">
       <c r="D59" t="s">
         <v>202</v>
       </c>
@@ -7315,7 +7412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10">
       <c r="D60" t="s">
         <v>202</v>
       </c>
@@ -7323,77 +7420,77 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10">
       <c r="D61" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10">
       <c r="D62" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10">
       <c r="D63" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10">
       <c r="D64" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4">
       <c r="D65" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4">
       <c r="D66" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4">
       <c r="D67" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4">
       <c r="D68" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4">
       <c r="D69" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4">
       <c r="D70" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4">
       <c r="D71" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4">
       <c r="D72" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4">
       <c r="D73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4">
       <c r="D74" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4">
       <c r="D75" t="s">
         <v>200</v>
       </c>
@@ -7405,12 +7502,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7418,39 +7515,39 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" t="s">
         <v>249</v>
       </c>
-      <c r="C2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>251</v>
-      </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -7459,60 +7556,60 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E6" t="s">
         <v>242</v>
       </c>
-      <c r="C6" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -7520,27 +7617,27 @@
         <v>208</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E9" t="s">
         <v>209</v>
       </c>
       <c r="K9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10" t="s">
         <v>208</v>
       </c>
@@ -7548,10 +7645,10 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
       <c r="B11" t="s">
         <v>209</v>
       </c>
@@ -7559,41 +7656,41 @@
         <v>209</v>
       </c>
       <c r="E11" t="s">
+        <v>247</v>
+      </c>
+      <c r="M11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" t="s">
         <v>249</v>
-      </c>
-      <c r="M11" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E12" t="s">
-        <v>250</v>
-      </c>
-      <c r="M12" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" t="s">
-        <v>251</v>
       </c>
       <c r="M13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13">
       <c r="B14" t="s">
         <v>210</v>
       </c>
@@ -7604,52 +7701,52 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13">
       <c r="B15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E15" t="s">
         <v>250</v>
       </c>
-      <c r="C15" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B18">
     <sortCondition ref="B2:B18"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/etc/documentum/내화및물량/rev0/1_Main/UAE FFF_마감물량 산출 근거_r0.xlsx
+++ b/etc/documentum/내화및물량/rev0/1_Main/UAE FFF_마감물량 산출 근거_r0.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MK\mQ\etc\documentum\내화및물량\rev0\1_Main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\etc\documentum\내화및물량\rev0\1_Main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CF4B9A-61B4-441D-BFAA-00E3B38E5413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7956" yWindow="828" windowWidth="11604" windowHeight="11676" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7950" yWindow="825" windowWidth="11610" windowHeight="11670" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trench" sheetId="8" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Ext Stair" sheetId="9" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="295">
   <si>
     <t>BF</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -731,26 +730,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>북측</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그리드 F-G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -771,50 +750,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Grid A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grid D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양쪽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grid F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grid J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grid E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grid B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grid C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grid K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grid H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grid I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>90FSD-1200X2200(A)</t>
   </si>
   <si>
@@ -919,14 +854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1020,14 +947,82 @@
   </si>
   <si>
     <t>그리드 18,A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 7,G-K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 18,A-F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 15-24,F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 18,C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 18,F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 7,F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 15,F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 17,F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 21,F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 23,F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 7,J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 15,K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 18,C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 15,J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 23,F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 18.D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 18.Db</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1739,32 +1734,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B4">
         <v>21.6</v>
@@ -1779,9 +1774,9 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -1791,22 +1786,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:I101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="E11:F12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>213</v>
       </c>
@@ -1818,7 +1813,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>216</v>
       </c>
@@ -1827,34 +1822,37 @@
         <v>48.599999999999994</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="E4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="11">
         <f>15+1.2</f>
         <v>16.2</v>
       </c>
       <c r="F4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="E5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="11">
         <f>15+1.2</f>
         <v>16.2</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="E6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="11">
         <f>15+1.2</f>
         <v>16.2</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>217</v>
       </c>
@@ -1862,690 +1860,743 @@
         <f>SUM(E9:E12)</f>
         <v>38.4</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="E9">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="11">
         <f>18+1.2</f>
         <v>19.2</v>
       </c>
       <c r="F9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="E10">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="11">
         <f>18+1.2</f>
         <v>19.2</v>
       </c>
       <c r="F10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="5">
         <f>SUM(D17:D27)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>216</v>
       </c>
       <c r="D17">
         <f>SUM(E18:E20)</f>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="E18">
-        <f>1.2*2</f>
-        <v>2.4</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E18" s="11">
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="E19">
-        <f>1.2*2</f>
-        <v>2.4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>217</v>
       </c>
       <c r="D21">
         <f>SUM(E22:E25)</f>
-        <v>7.1999999999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="E22">
-        <f>1.2*2</f>
-        <v>2.4</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="11">
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="E23">
-        <f>1.2*2</f>
-        <v>2.4</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="11">
+        <v>50</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="E24">
-        <f>1.2*2</f>
-        <v>2.4</v>
-      </c>
-      <c r="F24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="4" t="s">
-        <v>227</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="5">
-        <f>SUM(D29:D68)</f>
-        <v>994</v>
+        <f>SUM(D29:D91)</f>
+        <v>1694</v>
       </c>
       <c r="I28">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <f>SUM(E30:E32)*$I$28</f>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="E30">
-        <f>7+7+7+7</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>3</v>
       </c>
       <c r="D33">
-        <f>SUM(E34:E44)*$I$28</f>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7">
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7">
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7">
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>229</v>
-      </c>
-      <c r="G37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7">
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7">
-      <c r="E39">
-        <f>1+2+2+2+1+1+3+2+2+2+2+1</f>
-        <v>21</v>
-      </c>
-      <c r="F39" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7">
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7">
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7">
-      <c r="E42">
-        <v>2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7">
-      <c r="E43">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
-      <c r="F43" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7">
-      <c r="C45" t="s">
-        <v>224</v>
-      </c>
-      <c r="D45">
-        <f>SUM(E46:E56)*$I$28</f>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7">
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7">
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7">
-      <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7">
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" t="s">
-        <v>229</v>
-      </c>
-      <c r="G49" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7">
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7">
-      <c r="E51">
-        <f>1+2+2+2+1+1+3+2+2+2+2+1</f>
-        <v>21</v>
-      </c>
-      <c r="F51" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7">
-      <c r="E52">
-        <v>2</v>
-      </c>
-      <c r="F52" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7">
-      <c r="E53">
-        <v>2</v>
-      </c>
-      <c r="F53" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7">
-      <c r="E54">
-        <v>2</v>
-      </c>
-      <c r="F54" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7">
-      <c r="E55">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
-      <c r="F55" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7">
-      <c r="C57" t="s">
+        <f>SUM(E34:E50)*$I$28</f>
+        <v>500.5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E34" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E35" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E36" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E37" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E38" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E39" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E40" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E41" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E42" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E43" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E44" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="K44">
+        <f>12-5.5</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E45" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E46" s="11">
+        <v>5.5</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E48" s="11"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51">
+        <f>SUM(E52:E70)*$I$28</f>
+        <v>773.5</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E52" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E53" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E54" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E55" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E56" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E57" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E58" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E59" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E60" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E61" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E62" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E63" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E64" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E65" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E66" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E67" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E68" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
         <v>5</v>
       </c>
-      <c r="D57">
-        <f>SUM(E58:E68)*$I$28</f>
-        <v>266</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7">
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7">
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7">
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7">
-      <c r="E61">
-        <v>2</v>
-      </c>
-      <c r="F61" t="s">
-        <v>229</v>
-      </c>
-      <c r="G61" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="62" spans="3:7">
-      <c r="E62">
-        <v>2</v>
-      </c>
-      <c r="F62" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7">
-      <c r="E63">
-        <f>1+2+2+2+1+1+3+2+2+2+2+1</f>
-        <v>21</v>
-      </c>
-      <c r="F63" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7">
-      <c r="E64">
-        <v>2</v>
-      </c>
-      <c r="F64" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="E65">
-        <v>2</v>
-      </c>
-      <c r="F65" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="E66">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="E67">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
-      <c r="F67" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="B70" s="4" t="s">
+      <c r="D71">
+        <f>SUM(E72:E91)*$I$28</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E72" s="11">
+        <v>6</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E73" s="11">
+        <v>6</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E74" s="11">
+        <v>6</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E75" s="11">
+        <v>6</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E76" s="11">
+        <v>6</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E77" s="11">
+        <v>6</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E78" s="11">
+        <v>3</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E79" s="11">
+        <v>3</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E80" s="11">
+        <v>3</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E81" s="11">
+        <v>3</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E82" s="11">
+        <v>3</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E83" s="11">
+        <v>3</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E84" s="11">
+        <v>3</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E85" s="11">
+        <v>3</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B93" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="5">
-        <f>SUM(D71:D93)</f>
+      <c r="D93" s="5">
+        <f>SUM(D94:D116)</f>
         <v>549</v>
       </c>
     </row>
-    <row r="71" spans="2:6">
-      <c r="C71" t="s">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
         <v>0</v>
       </c>
-      <c r="D71">
-        <f>SUM(E72:E74)</f>
+      <c r="D94">
+        <f>SUM(E95:E97)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:6">
-      <c r="C75" t="s">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
         <v>3</v>
       </c>
-      <c r="D75">
-        <f>SUM(E76:E79)</f>
+      <c r="D98">
+        <f>SUM(E99:E102)</f>
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="2:6">
-      <c r="E76" s="11">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E99" s="11">
         <v>39</v>
       </c>
-      <c r="F76" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="E77" s="11">
+      <c r="F99" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E100" s="11">
         <f>42+50</f>
         <v>92</v>
       </c>
-      <c r="F77" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="E78" s="11">
+      <c r="F100" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E101" s="11">
         <v>26</v>
       </c>
-      <c r="F78" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="E79" s="11">
+      <c r="F101" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E102" s="11">
         <v>26</v>
       </c>
-      <c r="F79" s="11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="C80" t="s">
-        <v>224</v>
-      </c>
-      <c r="D80">
-        <f>SUM(E81:E85)</f>
+      <c r="F102" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>219</v>
+      </c>
+      <c r="D103">
+        <f>SUM(E104:E108)</f>
         <v>183</v>
       </c>
     </row>
-    <row r="81" spans="2:6">
-      <c r="E81" s="11">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E104" s="11">
         <v>39</v>
       </c>
-      <c r="F81" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="E82" s="11">
+      <c r="F104" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E105" s="11">
         <f>42+50</f>
         <v>92</v>
       </c>
-      <c r="F82" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="E83" s="11">
+      <c r="F105" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E106" s="11">
         <v>26</v>
       </c>
-      <c r="F83" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="E84" s="11">
+      <c r="F106" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E107" s="11">
         <v>26</v>
       </c>
-      <c r="F84" s="11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="C86" t="s">
+      <c r="F107" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
         <v>5</v>
       </c>
-      <c r="D86">
-        <f>SUM(E87:E90)</f>
+      <c r="D109">
+        <f>SUM(E110:E113)</f>
         <v>183</v>
       </c>
     </row>
-    <row r="87" spans="2:6">
-      <c r="E87" s="11">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E110" s="11">
         <v>39</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="E88" s="11">
+      <c r="F110" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E111" s="11">
         <f>42+50</f>
         <v>92</v>
       </c>
-      <c r="F88" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="E89" s="11">
+      <c r="F111" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E112" s="11">
         <v>26</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="E90" s="11">
+      <c r="F112" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E113" s="11">
         <v>26</v>
       </c>
-      <c r="F90" s="11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="4" t="s">
+      <c r="F113" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B118" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="5">
-        <f>SUM(D96:D106)</f>
+      <c r="D118" s="5">
+        <f>SUM(D119:D129)</f>
         <v>183</v>
       </c>
     </row>
-    <row r="97" spans="3:6">
-      <c r="C97" t="s">
-        <v>225</v>
-      </c>
-      <c r="D97">
-        <f>SUM(E98:E101)</f>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>220</v>
+      </c>
+      <c r="D120">
+        <f>SUM(E121:E124)</f>
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="3:6">
-      <c r="E98" s="11">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E121" s="11">
         <v>39</v>
       </c>
-      <c r="F98" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="99" spans="3:6">
-      <c r="E99" s="11">
+      <c r="F121" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E122" s="11">
         <f>42+50</f>
         <v>92</v>
       </c>
-      <c r="F99" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="100" spans="3:6">
-      <c r="E100" s="11">
+      <c r="F122" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E123" s="11">
         <v>26</v>
       </c>
-      <c r="F100" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6">
-      <c r="E101" s="11">
+      <c r="F123" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E124" s="11">
         <v>26</v>
       </c>
-      <c r="F101" s="11" t="s">
-        <v>290</v>
+      <c r="F124" s="11" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
-      <c r="B3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
         <v>269</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4">
-        <v>416</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="F6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="F7" t="s">
-        <v>287</v>
       </c>
       <c r="G7" s="5">
         <f>C15+C24</f>
         <v>797.57999999999993</v>
       </c>
       <c r="H7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C8">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9">
-        <v>416</v>
-      </c>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C12">
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="B13">
         <f>8+28+8</f>
@@ -2556,9 +2607,9 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B14">
         <f>8+26+8</f>
@@ -2569,26 +2620,26 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="4">
         <f>SUM(C13:C14)</f>
         <v>103.19999999999999</v>
       </c>
       <c r="D15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C18">
         <v>1.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="B19">
         <v>322.64999999999998</v>
@@ -2598,9 +2649,9 @@
         <v>387.17999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B20">
         <v>146</v>
@@ -2610,9 +2661,9 @@
         <v>175.2</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B21">
         <f>8+7+8+7</f>
@@ -2623,9 +2674,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="B22">
         <v>14</v>
@@ -2635,13 +2686,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C24" s="4">
         <f>SUM(C19:C23)</f>
         <v>694.37999999999988</v>
       </c>
       <c r="D24" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2651,29 +2702,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -2681,27 +2732,27 @@
         <v>5.5</v>
       </c>
       <c r="K4" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="L4" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="M4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>2</v>
@@ -2718,7 +2769,7 @@
         <v>8112.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>12</v>
       </c>
@@ -2741,7 +2792,7 @@
         <v>77</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="L6">
         <f>SUM(D$6:D$29)+SUM(D$36:D$46)+SUM(D$52:D$61)</f>
@@ -2752,7 +2803,7 @@
         <v>6118.5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>12</v>
       </c>
@@ -2782,7 +2833,7 @@
         <v>12237</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -2805,7 +2856,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -2828,7 +2879,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -2851,7 +2902,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
@@ -2874,7 +2925,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -2897,7 +2948,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2920,7 +2971,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2943,7 +2994,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>5.5</v>
       </c>
@@ -2966,7 +3017,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5.5</v>
       </c>
@@ -2989,7 +3040,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>5.5</v>
       </c>
@@ -3012,7 +3063,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>5.5</v>
       </c>
@@ -3035,7 +3086,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>5.5</v>
       </c>
@@ -3047,7 +3098,7 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5.5</v>
       </c>
@@ -3059,7 +3110,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5.5</v>
       </c>
@@ -3071,7 +3122,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5.5</v>
       </c>
@@ -3083,7 +3134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5.5</v>
       </c>
@@ -3095,7 +3146,7 @@
         <v>203.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5.5</v>
       </c>
@@ -3107,7 +3158,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>5.5</v>
       </c>
@@ -3119,7 +3170,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5.5</v>
       </c>
@@ -3131,7 +3182,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5.5</v>
       </c>
@@ -3143,7 +3194,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.5</v>
       </c>
@@ -3155,7 +3206,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="4">
         <f>SUM(B6:B29)</f>
         <v>467</v>
@@ -3171,7 +3222,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>4</v>
       </c>
@@ -3179,24 +3230,24 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>24</v>
       </c>
@@ -3216,7 +3267,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>24</v>
       </c>
@@ -3236,7 +3287,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>26</v>
       </c>
@@ -3256,7 +3307,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>12</v>
       </c>
@@ -3276,7 +3327,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>30</v>
       </c>
@@ -3296,7 +3347,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>30</v>
       </c>
@@ -3316,7 +3367,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>8</v>
       </c>
@@ -3336,7 +3387,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>100</v>
       </c>
@@ -3356,7 +3407,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>28</v>
       </c>
@@ -3376,7 +3427,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D45">
         <v>8</v>
       </c>
@@ -3389,7 +3440,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
         <f>SUM(B36:B46)</f>
         <v>282</v>
@@ -3405,32 +3456,32 @@
         <v>5915</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>19</v>
       </c>
@@ -3450,7 +3501,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>60</v>
       </c>
@@ -3470,7 +3521,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>58</v>
       </c>
@@ -3490,7 +3541,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>73</v>
       </c>
@@ -3510,7 +3561,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>39</v>
       </c>
@@ -3530,7 +3581,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>26</v>
       </c>
@@ -3550,7 +3601,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>10</v>
       </c>
@@ -3570,7 +3621,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>17</v>
       </c>
@@ -3579,7 +3630,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>35</v>
       </c>
@@ -3588,7 +3639,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>28</v>
       </c>
@@ -3597,7 +3648,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="9">
         <f>SUM(B52:B62)</f>
         <v>365</v>
@@ -3621,26 +3672,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R219"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="20.09765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="R3" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="H4" s="2" t="str">
         <f>B5</f>
         <v>BF</v>
@@ -3650,7 +3701,7 @@
       </c>
       <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -3658,13 +3709,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2">
@@ -3672,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2">
@@ -3680,7 +3731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -3694,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2">
@@ -3702,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2">
@@ -3710,7 +3761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -3718,13 +3769,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
@@ -3732,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2">
@@ -3740,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -3748,13 +3799,13 @@
         <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2">
@@ -3762,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2">
@@ -3770,7 +3821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -3778,13 +3829,13 @@
         <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2">
@@ -3792,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2">
@@ -3800,7 +3851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -3824,7 +3875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -3848,7 +3899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -3856,7 +3907,7 @@
         <v>15</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2">
@@ -3864,7 +3915,7 @@
         <v>2</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2">
@@ -3872,7 +3923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -3896,7 +3947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -3920,7 +3971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -3928,7 +3979,7 @@
         <v>18</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2">
@@ -3936,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2">
@@ -3944,7 +3995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -3953,7 +4004,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="H16" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2">
@@ -3961,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2">
@@ -3969,7 +4020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -3994,7 +4045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -4002,7 +4053,7 @@
         <v>21</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2">
@@ -4010,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2">
@@ -4018,7 +4069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -4026,7 +4077,7 @@
         <v>22</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2">
@@ -4034,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2">
@@ -4042,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -4050,7 +4101,7 @@
         <v>23</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2">
@@ -4058,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2">
@@ -4066,12 +4117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2">
@@ -4079,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2">
@@ -4087,13 +4138,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H28" s="2" t="str">
         <f>B29</f>
         <v>GF</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>24</v>
       </c>
@@ -4101,13 +4152,13 @@
         <v>25</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2">
@@ -4115,7 +4166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>24</v>
       </c>
@@ -4123,13 +4174,13 @@
         <v>26</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2">
@@ -4137,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>24</v>
       </c>
@@ -4145,13 +4196,13 @@
         <v>28</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2">
@@ -4159,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>24</v>
       </c>
@@ -4167,13 +4218,13 @@
         <v>29</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2">
@@ -4181,7 +4232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -4189,13 +4240,13 @@
         <v>30</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2">
@@ -4203,7 +4254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>24</v>
       </c>
@@ -4211,7 +4262,7 @@
         <v>31</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -4225,7 +4276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -4233,7 +4284,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -4247,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>24</v>
       </c>
@@ -4255,13 +4306,13 @@
         <v>34</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2">
@@ -4269,7 +4320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>24</v>
       </c>
@@ -4277,7 +4328,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -4291,7 +4342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>24</v>
       </c>
@@ -4299,7 +4350,7 @@
         <v>36</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -4313,7 +4364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>24</v>
       </c>
@@ -4327,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2">
@@ -4335,7 +4386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>24</v>
       </c>
@@ -4349,7 +4400,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2">
@@ -4357,7 +4408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>24</v>
       </c>
@@ -4365,7 +4416,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -4379,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>24</v>
       </c>
@@ -4387,13 +4438,13 @@
         <v>40</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2">
@@ -4401,7 +4452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>24</v>
       </c>
@@ -4409,13 +4460,13 @@
         <v>41</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2">
@@ -4423,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>24</v>
       </c>
@@ -4431,13 +4482,13 @@
         <v>42</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2">
@@ -4445,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>24</v>
       </c>
@@ -4459,7 +4510,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2">
@@ -4467,7 +4518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>24</v>
       </c>
@@ -4481,7 +4532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>24</v>
       </c>
@@ -4495,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>24</v>
       </c>
@@ -4509,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>24</v>
       </c>
@@ -4523,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>24</v>
       </c>
@@ -4531,13 +4582,13 @@
         <v>48</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>24</v>
       </c>
@@ -4545,13 +4596,13 @@
         <v>49</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>24</v>
       </c>
@@ -4559,13 +4610,13 @@
         <v>50</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>24</v>
       </c>
@@ -4573,13 +4624,13 @@
         <v>51</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>24</v>
       </c>
@@ -4587,13 +4638,13 @@
         <v>52</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="E54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>24</v>
       </c>
@@ -4601,13 +4652,13 @@
         <v>53</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>24</v>
       </c>
@@ -4615,13 +4666,13 @@
         <v>54</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>24</v>
       </c>
@@ -4629,13 +4680,13 @@
         <v>55</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>24</v>
       </c>
@@ -4649,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>24</v>
       </c>
@@ -4663,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>24</v>
       </c>
@@ -4677,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>24</v>
       </c>
@@ -4691,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:5">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>24</v>
       </c>
@@ -4705,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>24</v>
       </c>
@@ -4719,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>24</v>
       </c>
@@ -4727,13 +4778,13 @@
         <v>62</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>24</v>
       </c>
@@ -4741,13 +4792,13 @@
         <v>63</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>24</v>
       </c>
@@ -4755,13 +4806,13 @@
         <v>64</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>24</v>
       </c>
@@ -4769,13 +4820,13 @@
         <v>65</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>24</v>
       </c>
@@ -4783,13 +4834,13 @@
         <v>66</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:5">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>24</v>
       </c>
@@ -4797,13 +4848,13 @@
         <v>67</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>24</v>
       </c>
@@ -4811,13 +4862,13 @@
         <v>68</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>24</v>
       </c>
@@ -4825,13 +4876,13 @@
         <v>69</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>24</v>
       </c>
@@ -4839,13 +4890,13 @@
         <v>70</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>24</v>
       </c>
@@ -4853,13 +4904,13 @@
         <v>71</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>24</v>
       </c>
@@ -4873,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>24</v>
       </c>
@@ -4887,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>24</v>
       </c>
@@ -4901,7 +4952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>24</v>
       </c>
@@ -4909,13 +4960,13 @@
         <v>75</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>24</v>
       </c>
@@ -4923,13 +4974,13 @@
         <v>76</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:5">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>24</v>
       </c>
@@ -4937,13 +4988,13 @@
         <v>77</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:5">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>24</v>
       </c>
@@ -4951,13 +5002,13 @@
         <v>78</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>24</v>
       </c>
@@ -4965,13 +5016,13 @@
         <v>79</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>24</v>
       </c>
@@ -4979,13 +5030,13 @@
         <v>80</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>24</v>
       </c>
@@ -4993,13 +5044,13 @@
         <v>81</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>24</v>
       </c>
@@ -5007,13 +5058,13 @@
         <v>82</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>24</v>
       </c>
@@ -5021,13 +5072,13 @@
         <v>83</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>24</v>
       </c>
@@ -5035,13 +5086,13 @@
         <v>84</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>24</v>
       </c>
@@ -5049,13 +5100,13 @@
         <v>85</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>24</v>
       </c>
@@ -5063,13 +5114,13 @@
         <v>86</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>24</v>
       </c>
@@ -5077,13 +5128,13 @@
         <v>87</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>24</v>
       </c>
@@ -5097,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>24</v>
       </c>
@@ -5111,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>24</v>
       </c>
@@ -5119,13 +5170,13 @@
         <v>90</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>24</v>
       </c>
@@ -5139,7 +5190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>24</v>
       </c>
@@ -5153,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:5">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
         <v>24</v>
       </c>
@@ -5167,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>24</v>
       </c>
@@ -5175,13 +5226,13 @@
         <v>94</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>24</v>
       </c>
@@ -5189,13 +5240,13 @@
         <v>95</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>24</v>
       </c>
@@ -5203,13 +5254,13 @@
         <v>96</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>24</v>
       </c>
@@ -5217,13 +5268,13 @@
         <v>97</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>24</v>
       </c>
@@ -5231,13 +5282,13 @@
         <v>98</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E100">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>24</v>
       </c>
@@ -5245,13 +5296,13 @@
         <v>99</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>24</v>
       </c>
@@ -5259,13 +5310,13 @@
         <v>100</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="2:5">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>24</v>
       </c>
@@ -5273,13 +5324,13 @@
         <v>101</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="2:5">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>24</v>
       </c>
@@ -5287,13 +5338,13 @@
         <v>102</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="2:5">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>24</v>
       </c>
@@ -5301,13 +5352,13 @@
         <v>103</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>24</v>
       </c>
@@ -5315,13 +5366,13 @@
         <v>104</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>24</v>
       </c>
@@ -5335,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="2:5">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>24</v>
       </c>
@@ -5343,13 +5394,13 @@
         <v>106</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>24</v>
       </c>
@@ -5357,13 +5408,13 @@
         <v>107</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="2:5">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
         <v>24</v>
       </c>
@@ -5371,13 +5422,13 @@
         <v>108</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>24</v>
       </c>
@@ -5385,13 +5436,13 @@
         <v>109</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>24</v>
       </c>
@@ -5399,13 +5450,13 @@
         <v>110</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>24</v>
       </c>
@@ -5414,7 +5465,7 @@
       </c>
       <c r="D113" s="8"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>24</v>
       </c>
@@ -5422,7 +5473,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
         <v>24</v>
       </c>
@@ -5430,7 +5481,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
         <v>24</v>
       </c>
@@ -5438,7 +5489,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>24</v>
       </c>
@@ -5446,7 +5497,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>24</v>
       </c>
@@ -5454,7 +5505,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>24</v>
       </c>
@@ -5462,7 +5513,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>24</v>
       </c>
@@ -5470,13 +5521,13 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H122" s="2" t="str">
         <f>B123</f>
         <v>1F</v>
       </c>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>119</v>
       </c>
@@ -5484,13 +5535,13 @@
         <v>120</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E123">
         <v>1</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2">
@@ -5498,7 +5549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>119</v>
       </c>
@@ -5506,13 +5557,13 @@
         <v>121</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E124">
         <v>2</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2">
@@ -5520,7 +5571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>119</v>
       </c>
@@ -5528,13 +5579,13 @@
         <v>122</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I125" s="2"/>
       <c r="J125" s="2">
@@ -5542,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>119</v>
       </c>
@@ -5556,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I126" s="2"/>
       <c r="J126" s="2">
@@ -5564,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>119</v>
       </c>
@@ -5572,13 +5623,13 @@
         <v>124</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E127">
         <v>2</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="I127" s="2"/>
       <c r="J127" s="2">
@@ -5586,7 +5637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
         <v>119</v>
       </c>
@@ -5608,7 +5659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>119</v>
       </c>
@@ -5630,7 +5681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>119</v>
       </c>
@@ -5638,13 +5689,13 @@
         <v>127</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E130">
         <v>1</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="I130" s="2"/>
       <c r="J130" s="2">
@@ -5652,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>119</v>
       </c>
@@ -5660,7 +5711,7 @@
         <v>128</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -5674,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>119</v>
       </c>
@@ -5682,7 +5733,7 @@
         <v>129</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -5696,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>119</v>
       </c>
@@ -5704,13 +5755,13 @@
         <v>130</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E133">
         <v>1</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="I133" s="2"/>
       <c r="J133" s="2">
@@ -5718,7 +5769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>119</v>
       </c>
@@ -5726,13 +5777,13 @@
         <v>131</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E134">
         <v>2</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="I134" s="2"/>
       <c r="J134" s="2">
@@ -5740,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>119</v>
       </c>
@@ -5762,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>119</v>
       </c>
@@ -5770,13 +5821,13 @@
         <v>133</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E136">
         <v>1</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="I136" s="2"/>
       <c r="J136" s="2">
@@ -5784,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>119</v>
       </c>
@@ -5792,13 +5843,13 @@
         <v>134</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E137">
         <v>1</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="I137" s="2"/>
       <c r="J137" s="2">
@@ -5806,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>119</v>
       </c>
@@ -5814,13 +5865,13 @@
         <v>135</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E138">
         <v>2</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="I138" s="2"/>
       <c r="J138" s="2">
@@ -5828,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>119</v>
       </c>
@@ -5836,13 +5887,13 @@
         <v>136</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E139">
         <v>2</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="I139" s="2"/>
       <c r="J139" s="2">
@@ -5850,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>119</v>
       </c>
@@ -5864,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>119</v>
       </c>
@@ -5878,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>119</v>
       </c>
@@ -5886,13 +5937,13 @@
         <v>139</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>119</v>
       </c>
@@ -5906,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
         <v>119</v>
       </c>
@@ -5914,13 +5965,13 @@
         <v>141</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>119</v>
       </c>
@@ -5928,13 +5979,13 @@
         <v>142</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:5">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
         <v>119</v>
       </c>
@@ -5942,13 +5993,13 @@
         <v>143</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E146">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:5">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>119</v>
       </c>
@@ -5956,13 +6007,13 @@
         <v>144</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E147">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="2:5">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>119</v>
       </c>
@@ -5970,13 +6021,13 @@
         <v>145</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:5">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
         <v>119</v>
       </c>
@@ -5984,13 +6035,13 @@
         <v>146</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:5">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
         <v>119</v>
       </c>
@@ -5998,13 +6049,13 @@
         <v>147</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:5">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
         <v>119</v>
       </c>
@@ -6012,7 +6063,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="2:5">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>119</v>
       </c>
@@ -6020,7 +6071,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="2:5">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>119</v>
       </c>
@@ -6028,7 +6079,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="154" spans="2:5">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>119</v>
       </c>
@@ -6036,7 +6087,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="2:5">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>119</v>
       </c>
@@ -6044,7 +6095,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="2:5">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>119</v>
       </c>
@@ -6052,7 +6103,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="2:5">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>119</v>
       </c>
@@ -6060,7 +6111,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="158" spans="2:5">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>119</v>
       </c>
@@ -6069,7 +6120,7 @@
       </c>
       <c r="D158" s="8"/>
     </row>
-    <row r="159" spans="2:5">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>119</v>
       </c>
@@ -6077,7 +6128,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="2:5">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
         <v>119</v>
       </c>
@@ -6085,13 +6136,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="162" spans="2:10">
+    <row r="162" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H162" s="2" t="str">
         <f>B163</f>
         <v>2F</v>
       </c>
     </row>
-    <row r="163" spans="2:10">
+    <row r="163" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
         <v>158</v>
       </c>
@@ -6099,13 +6150,13 @@
         <v>159</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E163">
         <v>1</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="I163" s="2"/>
       <c r="J163" s="2">
@@ -6113,7 +6164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="2:10">
+    <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
         <v>158</v>
       </c>
@@ -6127,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I164" s="2"/>
       <c r="J164" s="2">
@@ -6135,7 +6186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="2:10">
+    <row r="165" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
         <v>158</v>
       </c>
@@ -6149,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I165" s="2"/>
       <c r="J165" s="2">
@@ -6157,7 +6208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:10">
+    <row r="166" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
         <v>158</v>
       </c>
@@ -6165,13 +6216,13 @@
         <v>162</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E166">
         <v>1</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I166" s="2"/>
       <c r="J166" s="2">
@@ -6179,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:10">
+    <row r="167" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
         <v>158</v>
       </c>
@@ -6193,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="I167" s="2"/>
       <c r="J167" s="2">
@@ -6201,7 +6252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="2:10">
+    <row r="168" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
         <v>158</v>
       </c>
@@ -6209,7 +6260,7 @@
         <v>164</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -6223,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:10">
+    <row r="169" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
         <v>158</v>
       </c>
@@ -6231,7 +6282,7 @@
         <v>165</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -6245,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:10">
+    <row r="170" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
         <v>158</v>
       </c>
@@ -6259,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="I170" s="2"/>
       <c r="J170" s="2">
@@ -6267,7 +6318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="2:10">
+    <row r="171" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
         <v>158</v>
       </c>
@@ -6275,7 +6326,7 @@
         <v>167</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -6289,7 +6340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="2:10">
+    <row r="172" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
         <v>158</v>
       </c>
@@ -6311,7 +6362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="2:10">
+    <row r="173" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
         <v>158</v>
       </c>
@@ -6325,7 +6376,7 @@
         <v>1</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="I173" s="2"/>
       <c r="J173" s="2">
@@ -6333,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:10">
+    <row r="174" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
         <v>158</v>
       </c>
@@ -6341,13 +6392,13 @@
         <v>170</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E174">
         <v>1</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="I174" s="2"/>
       <c r="J174" s="2">
@@ -6355,7 +6406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:10">
+    <row r="175" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
         <v>158</v>
       </c>
@@ -6377,7 +6428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="2:10">
+    <row r="176" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
         <v>158</v>
       </c>
@@ -6391,7 +6442,7 @@
         <v>1</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="I176" s="2"/>
       <c r="J176" s="2">
@@ -6399,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:10">
+    <row r="177" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
         <v>158</v>
       </c>
@@ -6413,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="I177" s="2"/>
       <c r="J177" s="2">
@@ -6421,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:10">
+    <row r="178" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
         <v>158</v>
       </c>
@@ -6429,13 +6480,13 @@
         <v>174</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E178">
         <v>1</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="I178" s="2"/>
       <c r="J178" s="2">
@@ -6443,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:10">
+    <row r="179" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
         <v>158</v>
       </c>
@@ -6451,13 +6502,13 @@
         <v>175</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="I179" s="2"/>
       <c r="J179" s="2">
@@ -6465,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:10">
+    <row r="180" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
         <v>158</v>
       </c>
@@ -6479,7 +6530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="2:10">
+    <row r="181" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>158</v>
       </c>
@@ -6493,7 +6544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:10">
+    <row r="182" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>158</v>
       </c>
@@ -6501,13 +6552,13 @@
         <v>178</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E182">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="2:10">
+    <row r="183" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>158</v>
       </c>
@@ -6515,13 +6566,13 @@
         <v>179</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E183">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="2:10">
+    <row r="184" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>158</v>
       </c>
@@ -6535,7 +6586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:10">
+    <row r="185" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>158</v>
       </c>
@@ -6543,13 +6594,13 @@
         <v>181</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E185">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="2:10">
+    <row r="186" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>158</v>
       </c>
@@ -6557,13 +6608,13 @@
         <v>182</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E186">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="2:10">
+    <row r="187" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
         <v>158</v>
       </c>
@@ -6571,13 +6622,13 @@
         <v>183</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E187">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="2:10">
+    <row r="188" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>158</v>
       </c>
@@ -6585,13 +6636,13 @@
         <v>184</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E188">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="2:10">
+    <row r="189" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
         <v>158</v>
       </c>
@@ -6599,13 +6650,13 @@
         <v>185</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E189">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="2:10">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
         <v>158</v>
       </c>
@@ -6613,13 +6664,13 @@
         <v>186</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E190">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="2:10">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
         <v>158</v>
       </c>
@@ -6627,13 +6678,13 @@
         <v>187</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E191">
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="2:10">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>158</v>
       </c>
@@ -6641,13 +6692,13 @@
         <v>188</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E192">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="2:10">
+    <row r="193" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>158</v>
       </c>
@@ -6655,13 +6706,13 @@
         <v>189</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E193">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="2:10">
+    <row r="194" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
         <v>5</v>
       </c>
@@ -6669,13 +6720,13 @@
         <v>190</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E194">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="2:10">
+    <row r="195" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>5</v>
       </c>
@@ -6683,32 +6734,32 @@
         <v>191</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E195">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:10">
+    <row r="196" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>5</v>
       </c>
       <c r="C196" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E196">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:10">
+    <row r="197" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B197" t="s">
         <v>5</v>
       </c>
       <c r="C197" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D197" s="8" t="s">
         <v>27</v>
@@ -6717,33 +6768,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="2:10">
+    <row r="198" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
         <v>158</v>
       </c>
       <c r="C198" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="199" spans="2:10">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
         <v>158</v>
       </c>
       <c r="C199" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D199" s="8"/>
     </row>
-    <row r="200" spans="2:10">
+    <row r="200" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D200" s="8"/>
     </row>
-    <row r="202" spans="2:10">
+    <row r="202" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H202" s="2" t="str">
         <f>B203</f>
         <v>RF</v>
       </c>
     </row>
-    <row r="203" spans="2:10">
+    <row r="203" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
         <v>192</v>
       </c>
@@ -6751,13 +6802,13 @@
         <v>193</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E203">
         <v>2</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="I203" s="2"/>
       <c r="J203" s="2">
@@ -6765,7 +6816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:10">
+    <row r="204" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
         <v>192</v>
       </c>
@@ -6773,7 +6824,7 @@
         <v>194</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="I204" s="2"/>
       <c r="J204" s="2">
@@ -6781,9 +6832,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:10">
+    <row r="205" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H205" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="I205" s="2"/>
       <c r="J205" s="2">
@@ -6791,9 +6842,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:10">
+    <row r="206" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H206" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="I206" s="2"/>
       <c r="J206" s="2">
@@ -6801,9 +6852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:10">
+    <row r="207" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H207" s="2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="I207" s="2"/>
       <c r="J207" s="2">
@@ -6811,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:10">
+    <row r="208" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H208" s="2" t="s">
         <v>32</v>
       </c>
@@ -6821,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="8:10">
+    <row r="209" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H209" s="2" t="s">
         <v>208</v>
       </c>
@@ -6831,9 +6882,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="8:10">
+    <row r="210" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H210" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="I210" s="2"/>
       <c r="J210" s="2">
@@ -6841,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="8:10">
+    <row r="211" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H211" s="2" t="s">
         <v>27</v>
       </c>
@@ -6851,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="8:10">
+    <row r="212" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H212" s="2" t="s">
         <v>209</v>
       </c>
@@ -6861,9 +6912,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="8:10">
+    <row r="213" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H213" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="I213" s="2"/>
       <c r="J213" s="2">
@@ -6871,9 +6922,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="8:10">
+    <row r="214" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H214" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="I214" s="2"/>
       <c r="J214" s="2">
@@ -6881,7 +6932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="8:10">
+    <row r="215" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H215" s="2" t="s">
         <v>210</v>
       </c>
@@ -6891,9 +6942,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="8:10">
+    <row r="216" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H216" s="2" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="I216" s="2"/>
       <c r="J216" s="2">
@@ -6901,9 +6952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="8:10">
+    <row r="217" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H217" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="I217" s="2"/>
       <c r="J217" s="2">
@@ -6911,9 +6962,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="8:10">
+    <row r="218" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H218" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="I218" s="2"/>
       <c r="J218" s="2">
@@ -6921,9 +6972,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="8:10">
+    <row r="219" spans="8:10" x14ac:dyDescent="0.3">
       <c r="H219" s="2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="I219" s="2"/>
       <c r="J219" s="2">
@@ -6939,24 +6990,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="H4" s="1" t="str">
         <f>B5</f>
         <v>GF</v>
@@ -6966,7 +7017,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>195</v>
       </c>
@@ -6992,7 +7043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>199</v>
       </c>
@@ -7012,7 +7063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>199</v>
       </c>
@@ -7032,7 +7083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>199</v>
       </c>
@@ -7052,7 +7103,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>199</v>
       </c>
@@ -7072,7 +7123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>199</v>
       </c>
@@ -7080,108 +7131,108 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H31" s="1" t="str">
         <f>B32</f>
         <v>1F</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>119</v>
       </c>
@@ -7200,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:10">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>200</v>
       </c>
@@ -7213,7 +7264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="4:10">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>202</v>
       </c>
@@ -7226,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:10">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>202</v>
       </c>
@@ -7239,7 +7290,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="4:10">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>202</v>
       </c>
@@ -7252,7 +7303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:10">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>202</v>
       </c>
@@ -7260,88 +7311,88 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="4:10">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="4:10">
+    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="4:10">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="4:10">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="4:10">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="43" spans="4:10">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="4:10">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="4:10">
+    <row r="45" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="4:10">
+    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="4:10">
+    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="4:10">
+    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="H54" s="1" t="str">
         <f>B55</f>
         <v>2F</v>
       </c>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>158</v>
       </c>
@@ -7360,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>202</v>
       </c>
@@ -7373,7 +7424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>202</v>
       </c>
@@ -7386,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>202</v>
       </c>
@@ -7399,7 +7450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>202</v>
       </c>
@@ -7412,7 +7463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>202</v>
       </c>
@@ -7420,77 +7471,77 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="4:4">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="66" spans="4:4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="4:4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="4:4">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="4:4">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="4:4">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="4:4">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="4:4">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="73" spans="4:4">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="4:4">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="4:4">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>200</v>
       </c>
@@ -7502,12 +7553,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7515,39 +7566,39 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -7556,60 +7607,60 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="H4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="E5" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="K7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -7617,27 +7668,27 @@
         <v>208</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="K8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E9" t="s">
         <v>209</v>
       </c>
       <c r="K9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>208</v>
       </c>
@@ -7645,10 +7696,10 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>209</v>
       </c>
@@ -7656,41 +7707,41 @@
         <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="M11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="M12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="E13" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="M13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>210</v>
       </c>
@@ -7701,52 +7752,52 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="E15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C16" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E16" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E17" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C18" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B18">
+  <sortState ref="B2:B18">
     <sortCondition ref="B2:B18"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
